--- a/DatabaseUpdate/ExcelFiles/Decisions.xlsx
+++ b/DatabaseUpdate/ExcelFiles/Decisions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -28,34 +28,40 @@
     <x:t>ShortName</x:t>
   </x:si>
   <x:si>
+    <x:t>DecisionKindId</x:t>
+  </x:si>
+  <x:si>
     <x:t>BeginDateTime</x:t>
   </x:si>
   <x:si>
     <x:t>EndDateTime</x:t>
   </x:si>
   <x:si>
-    <x:t>ColorSettingsId</x:t>
-  </x:si>
-  <x:si>
     <x:t>1</x:t>
   </x:si>
   <x:si>
     <x:t>NULL</x:t>
   </x:si>
   <x:si>
-    <x:t>Удовлетворить</x:t>
+    <x:t>Оказать</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>Отказать</x:t>
+    <x:t>Оказать срочно</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказать ср.</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>На рассмотрении</x:t>
+    <x:t>Оказать планово</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказать план.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -455,14 +461,14 @@
       <x:c r="D2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="E2" s="1">
-        <x:v>42005</x:v>
+      <x:c r="E2" s="0" t="s">
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F2" s="1">
-        <x:v>42736</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G2" s="1">
+        <x:v>2958100</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
@@ -470,45 +476,45 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E3" s="1">
-        <x:v>42005</x:v>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F3" s="1">
-        <x:v>42736</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G3" s="1">
+        <x:v>2958100</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E4" s="1">
-        <x:v>42005</x:v>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F4" s="1">
-        <x:v>42736</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G4" s="1">
+        <x:v>2958100</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
